--- a/hardware/daplink/Sample-BOM_JLCSMT.xlsx
+++ b/hardware/daplink/Sample-BOM_JLCSMT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andy\Desktop\DAPLink\hardware\daplink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E725EE-4823-45B3-AC05-B2204C78A5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC530A25-DB2D-411E-AABC-99BF1C7DA2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10695" yWindow="1290" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>Comment</t>
   </si>
@@ -294,12 +294,26 @@
   <si>
     <t>C115962</t>
   </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>22775</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -335,6 +349,11 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="2">
@@ -374,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,6 +408,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,7 +758,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D34"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1033,8 +1055,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A22" t="s">
-        <v>15</v>
+      <c r="A22">
+        <v>100</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
@@ -1042,8 +1064,8 @@
       <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" t="s">
-        <v>75</v>
+      <c r="D22" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
